--- a/Full_MOSFET/FULL  MOSFTET ID VD 200um.xlsx
+++ b/Full_MOSFET/FULL  MOSFTET ID VD 200um.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalbe\OneDrive\Desktop\ECE220 Lab4\ece220\Full_MOSFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96973A08-E243-4087-866B-5CBBC512E060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7BBB34-C6BE-425C-AEA2-519292DC128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2410" yWindow="3630" windowWidth="16250" windowHeight="11110" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="400x20" sheetId="1" r:id="rId1"/>
     <sheet name="400x15" sheetId="2" r:id="rId2"/>
     <sheet name="400x5" sheetId="3" r:id="rId3"/>
+    <sheet name="diode iv exponential fit attemp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>VD</t>
   </si>
@@ -54,6 +55,9 @@
   </si>
   <si>
     <t>ID8</t>
+  </si>
+  <si>
+    <t>VG</t>
   </si>
 </sst>
 </file>
@@ -6320,7 +6324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4944E0C3-FC3F-4157-83E5-C639624FD5D3}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -9287,4 +9291,2397 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AC5E13-001F-4A4D-A094-C8A4E2B75740}">
+  <dimension ref="A1:I82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>-4.3618999999999999E-7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.011E-6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.3486000000000006E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.289E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.5885000000000001E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.8295E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.0499000000000001E-5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.2365E-5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>-4.9327999999999998E-7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.1505000000000001E-6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.4329000000000008E-6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.3005E-5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.8519E-5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.0659999999999999E-5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.2574000000000001E-5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>-4.6175000000000002E-7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.2475000000000002E-6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.6830000000000003E-6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.325E-5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.6209999999999999E-5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.8715E-5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.0914999999999999E-5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.2844E-5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>-4.3608999999999998E-7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.3704999999999997E-6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.8245000000000006E-6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.3424999999999999E-5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.6435000000000001E-5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.8955000000000001E-5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.1195E-5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.3105E-5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>-3.6604000000000001E-7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.5173999999999999E-6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.9800999999999995E-6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.364E-5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.6685E-5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.9208999999999999E-5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.1489E-5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.3414E-5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>-3.5034E-7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.6602999999999998E-6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0207000000000001E-5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.3900000000000001E-5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.6994999999999999E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.9539999999999999E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.1804999999999999E-5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.3765E-5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>-4.0820000000000002E-7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.9339000000000001E-6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0464E-5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4175000000000001E-5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.732E-5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.9910000000000001E-5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.2194000000000001E-5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.4165E-5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>-4.6234E-7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.2259E-6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.084E-5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.453E-5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.7694999999999999E-5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.0333999999999999E-5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.2634999999999999E-5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.4644999999999999E-5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>-4.7644E-7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.5570000000000001E-6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.1199999999999999E-5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.4949999999999999E-5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.8114999999999999E-5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.0815E-5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.3115000000000001E-5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.5170000000000001E-5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>-5.1144000000000003E-7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.9135E-6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.163E-5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.5460000000000001E-5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.8640000000000001E-5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.1335000000000002E-5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.3683999999999999E-5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.5780000000000001E-5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>-4.9129999999999996E-7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.2979E-6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2125E-5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.6005E-5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.9245E-5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.194E-5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.4324E-5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.6444999999999998E-5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1.3877787800000001E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>-4.7254000000000002E-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.7713999999999998E-6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.2695E-5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.664E-5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.9913999999999999E-5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.264E-5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.5075E-5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.7195E-5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>-4.3058999999999999E-7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.2943999999999997E-6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.3370000000000001E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7345000000000001E-5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.0665E-5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.3399000000000001E-5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.588E-5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.8030000000000001E-5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>-3.6109000000000001E-7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.8852999999999994E-6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.412E-5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.8139E-5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.1474000000000001E-5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.4280000000000001E-5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.6800000000000001E-5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.8974000000000001E-5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>-4.0935E-7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.6554999999999993E-6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.9004999999999998E-5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.2415000000000001E-5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.5259E-5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.7775000000000001E-5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.0009999999999999E-5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>-4.1614000000000002E-7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.044E-5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.5930000000000002E-5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0069999999999999E-5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.3499999999999999E-5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.635E-5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.8929999999999999E-5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.1198999999999997E-5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>-3.2924E-7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.13E-5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.7059999999999999E-5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.1185000000000001E-5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.4655E-5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.7569999999999999E-5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.0179999999999999E-5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.2484000000000003E-5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>-4.7234000000000001E-7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.2295E-5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.8255000000000001E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.2459999999999998E-5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.5984999999999999E-5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.8918999999999999E-5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.1585000000000003E-5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.3915000000000003E-5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>-2.973E-7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.3285000000000001E-5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.9599999999999999E-5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.3859999999999999E-5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.7424999999999999E-5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.0395E-5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.3083999999999997E-5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.5454999999999999E-5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>-3.9158999999999997E-7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.4555E-5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.109E-5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.5394000000000001E-5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.902E-5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.2019E-5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.4749000000000002E-5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3.7165000000000001E-5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>-3.6189000000000002E-7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.5668999999999999E-5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.2585000000000001E-5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.7025E-5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.0670000000000003E-5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.3689999999999998E-5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.6468999999999999E-5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.8905000000000001E-5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>-3.249E-7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.7034999999999999E-5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.4403999999999999E-5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.8853999999999999E-5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.2555000000000003E-5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.561E-5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.8430000000000003E-5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4.0904E-5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>-4.0298999999999998E-7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.8445E-5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.6270000000000001E-5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.0845E-5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.4584E-5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.7669999999999997E-5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.0519999999999998E-5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4.3040000000000001E-5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>-2.6249999999999997E-7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.9919999999999999E-5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.8364000000000002E-5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.3045E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.6829999999999998E-5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.9928999999999997E-5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4.2815000000000003E-5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4.5389000000000002E-5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>-3.9499999999999998E-7</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.1569E-5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.0574999999999998E-5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.5374999999999999E-5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.9193999999999998E-5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.2330000000000003E-5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.5269999999999999E-5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4.7849000000000002E-5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>-3.0604000000000001E-7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.3135000000000001E-5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.2950000000000001E-5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.7904999999999997E-5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.1770000000000002E-5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.494E-5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.7908999999999998E-5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5.0534000000000001E-5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>-3.0899999999999997E-7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.4850000000000001E-5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.5429000000000002E-5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.0509000000000001E-5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.4434999999999997E-5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.7630000000000003E-5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.0645E-5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5.3298999999999999E-5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>-3.4120000000000001E-7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.6610000000000001E-5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.8109999999999999E-5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.3414000000000001E-5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.7373999999999997E-5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5.0599000000000001E-5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.3637999999999997E-5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5.6344999999999997E-5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>-2.5585E-7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.8430000000000001E-5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.0908999999999997E-5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.6468999999999998E-5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.0479999999999998E-5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.3739000000000002E-5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.6808999999999998E-5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.9553999999999999E-5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>-3.5754000000000001E-7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.0365000000000002E-5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.3903999999999998E-5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.9725000000000002E-5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5.3825000000000001E-5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.7093999999999999E-5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6.0234E-5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6.2983000000000003E-5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>-2.5283999999999998E-7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3.2193999999999997E-5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4.7015000000000003E-5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.3164000000000001E-5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5.7314E-5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6.0622999999999999E-5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6.3783999999999998E-5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6.6607999999999997E-5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>-2.9970000000000002E-7</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3.4260000000000001E-5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.0309999999999998E-5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5.6823999999999997E-5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6.1054000000000002E-5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6.4387999999999994E-5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6.7613999999999993E-5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7.0438000000000006E-5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>-2.9919999999999998E-7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.6199999999999999E-5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.3544000000000001E-5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6.0519000000000001E-5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6.4834999999999998E-5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6.8332999999999998E-5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>7.1569999999999994E-5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>7.4442000000000003E-5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>-2.4429999999999998E-7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3.8263999999999998E-5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5.7093999999999999E-5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6.4559000000000003E-5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6.8977E-5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7.2404999999999995E-5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>7.5674999999999996E-5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>7.8603000000000006E-5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>-3.0494999999999999E-7</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4.0395000000000002E-5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6.0689000000000001E-5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6.8764999999999996E-5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7.3283999999999998E-5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7.6718999999999995E-5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8.0060000000000003E-5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>8.2973000000000007E-5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>-2.139E-7</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4.2429000000000003E-5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.444E-5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.3152999999999996E-5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7.7831999999999996E-5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8.1318999999999998E-5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>8.4693999999999999E-5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>8.7678999999999999E-5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>-2.7999000000000001E-7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.4634E-5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.8213999999999994E-5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7.771E-5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8.2559999999999996E-5</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8.6102999999999999E-5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>8.9504000000000002E-5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9.2532000000000001E-5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>-2.5373999999999999E-7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4.6789999999999998E-5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7.2155000000000003E-5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.2478000000000006E-5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8.7528999999999995E-5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9.1127999999999999E-5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>9.4588999999999998E-5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>9.7616999999999997E-5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>-2.2245000000000001E-7</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4.9014000000000002E-5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7.6171E-5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8.7431999999999999E-5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>9.2677999999999996E-5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9.6317000000000006E-5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.9808000000000004E-5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.0294E-4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>-2.5983999999999998E-7</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5.1195E-5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8.0179000000000006E-5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.2454000000000006E-5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9.7963999999999999E-5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.0166E-4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.0495E-4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.0815E-4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>-1.9488999999999999E-7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5.3353999999999998E-5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8.4284999999999997E-5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9.7670000000000005E-5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.0351E-4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.071E-4</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.1069999999999999E-4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.138E-4</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>-2.6224E-7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5.5719E-5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8.8509000000000002E-5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.0314000000000001E-4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.091E-4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.1305E-4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.166E-4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1.1985E-4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>-2.0744999999999999E-7</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.7960000000000001E-5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9.2777999999999998E-5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.0855E-4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.1514999999999999E-4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.1904999999999999E-4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.228E-4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.26E-4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>-2.1654999999999999E-7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6.0275000000000001E-5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>9.7133000000000007E-5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.143E-4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.214E-4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.2549999999999999E-4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.2915E-4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1.3239999999999999E-4</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>-2.2074999999999999E-7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6.2589000000000007E-5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.015E-4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.2015000000000001E-4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.2779999999999999E-4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1.3574999999999999E-4</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1.3909999999999999E-4</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>-1.786E-7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6.4820000000000006E-5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.058E-4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.2605E-4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.3430000000000001E-4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.3880000000000001E-4</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.4265E-4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.4595E-4</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>-2.2989999999999999E-7</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6.7199999999999994E-5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.1025E-4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.3210000000000001E-4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.4109999999999999E-4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.4559999999999999E-4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.495E-4</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.529E-4</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>-1.6360000000000001E-7</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6.9533E-5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.148E-4</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.384E-4</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.482E-4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.5285E-4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.5679999999999999E-4</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1.6024999999999999E-4</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>-1.994E-7</v>
+      </c>
+      <c r="B50" s="1">
+        <v>7.1876000000000001E-5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.1935E-4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.4464999999999999E-4</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.5540000000000001E-4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.6029999999999999E-4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.6430000000000001E-4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1.6770000000000001E-4</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>-1.7865E-7</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7.4289999999999995E-5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.5105000000000001E-4</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.628E-4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.6794999999999999E-4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.7205000000000001E-4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1.7560000000000001E-4</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>-1.6110000000000001E-7</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7.6595999999999996E-5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.2855000000000001E-4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.5755000000000001E-4</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.7034999999999999E-4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.7574999999999999E-4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1.8354999999999999E-4</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>-1.8545000000000001E-7</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7.9084000000000004E-5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.3325000000000001E-4</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.6420000000000001E-4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.7809999999999999E-4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.839E-4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.8819999999999999E-4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.919E-4</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>-1.3794999999999999E-7</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8.1345000000000001E-5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.3784999999999999E-4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.7065E-4</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.8579999999999999E-4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.92E-4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1.964E-4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2.0010000000000001E-4</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>-1.9044999999999999E-7</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8.3784999999999998E-5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.4249999999999999E-4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.774E-4</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.9385E-4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.006E-4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2.0505999999999999E-4</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2.0880000000000001E-4</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>-1.2209999999999999E-7</v>
+      </c>
+      <c r="B56" s="1">
+        <v>8.6203000000000001E-5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.4725E-4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.8415E-4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.0215000000000001E-4</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.0929999999999999E-4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2.139E-4</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.1770000000000001E-4</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>-1.5519999999999999E-7</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8.8586999999999997E-5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.5205000000000001E-4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2.1044999999999999E-4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2.1821000000000001E-4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.231E-4</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2.2690000000000001E-4</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>-1.4615E-7</v>
+      </c>
+      <c r="B58" s="1">
+        <v>9.1090999999999999E-5</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.5674999999999999E-4</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.9785000000000001E-4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2.1890000000000001E-4</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.274E-4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2.3235000000000001E-4</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2.363E-4</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>-1.165E-7</v>
+      </c>
+      <c r="B59" s="1">
+        <v>9.3478000000000002E-5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.616E-4</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.0479999999999999E-4</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.2755E-4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2.3675000000000001E-4</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2.42E-4</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2.4604999999999999E-4</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>-1.3939999999999999E-7</v>
+      </c>
+      <c r="B60" s="1">
+        <v>9.5870000000000002E-5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.6625E-4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2.1159999999999999E-4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2.3589999999999999E-4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2.4611000000000001E-4</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2.5146000000000001E-4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2.5555E-4</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>-9.7598999999999999E-8</v>
+      </c>
+      <c r="B61" s="1">
+        <v>9.8369999999999995E-5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.7110000000000001E-4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2.186E-4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2.4486000000000001E-4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2.5589999999999999E-4</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2.6154999999999999E-4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2.6574999999999998E-4</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>-1.3545000000000001E-7</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.0071E-4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.7594999999999999E-4</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.2565000000000001E-4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2.5365000000000001E-4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2.6570000000000001E-4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2.7179999999999999E-4</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2.7599999999999999E-4</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>-9.7598999999999999E-8</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.033E-4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.8075E-4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.3274999999999999E-4</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2.6265000000000001E-4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2.7595000000000001E-4</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.8219999999999997E-4</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2.8669999999999998E-4</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>-1.098E-7</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.0595E-4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.8565000000000001E-4</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2.3995E-4</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2.7170999999999999E-4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2.8610000000000002E-4</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2.9300000000000002E-4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2.9750000000000002E-4</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>-7.1496999999999995E-8</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.0835E-4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.9055E-4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2.4705000000000001E-4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2.8079999999999999E-4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2.9664999999999997E-4</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3.0391000000000001E-4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3.0855999999999999E-4</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>-9.7348000000000006E-8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.1085E-4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.953E-4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2.541E-4</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2.8986000000000002E-4</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3.0719999999999999E-4</v>
+      </c>
+      <c r="G66" s="1">
+        <v>3.1500000000000001E-4</v>
+      </c>
+      <c r="H66" s="1">
+        <v>3.1981000000000002E-4</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>-7.3599999999999997E-8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.133E-4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2.0024999999999999E-4</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2.6134999999999998E-4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2.9915999999999997E-4</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3.1775E-4</v>
+      </c>
+      <c r="G67" s="1">
+        <v>3.2620000000000001E-4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3.3105999999999999E-4</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>-7.8746999999999997E-8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1.1574999999999999E-4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2.051E-4</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.6855E-4</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3.0850000000000002E-4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3.2864999999999999E-4</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3.3764999999999999E-4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3.4285000000000001E-4</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>-6.2249000000000004E-8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.183E-4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2.1010000000000001E-4</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2.7589999999999998E-4</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3.1795E-4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3.3960000000000001E-4</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3.4945000000000001E-4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3.548E-4</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>-5.9375000000000001E-8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.2074999999999999E-4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2.1499999999999999E-4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.8305000000000002E-4</v>
+      </c>
+      <c r="E70" s="1">
+        <v>3.2735000000000002E-4</v>
+      </c>
+      <c r="F70" s="1">
+        <v>3.5075999999999998E-4</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3.6146000000000003E-4</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>-8.8032000000000004E-8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.2334999999999999E-4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2.9050000000000001E-4</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3.369E-4</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3.6201000000000001E-4</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3.7365E-4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3.7954999999999998E-4</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>-5.2314000000000001E-8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1.2579999999999999E-4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2.2495999999999999E-4</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.9779999999999997E-4</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3.4634999999999999E-4</v>
+      </c>
+      <c r="F72" s="1">
+        <v>3.7330000000000002E-4</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3.8596000000000002E-4</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3.9205000000000002E-4</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>-7.5651999999999995E-8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1.2835E-4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2.299E-4</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.0509999999999999E-4</v>
+      </c>
+      <c r="E73" s="1">
+        <v>3.5585E-4</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3.8460000000000002E-4</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3.9825E-4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4.0491000000000002E-4</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>-4.6075000000000001E-8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.3090000000000001E-4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2.3481000000000001E-4</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3.1244999999999998E-4</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3.6540999999999999E-4</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3.9595E-4</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4.1090000000000001E-4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4.1794999999999999E-4</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>-3.1954000000000003E-8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1.3334999999999999E-4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.399E-4</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3.1990000000000002E-4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3.7511000000000001E-4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4.0776000000000001E-4</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4.2384999999999998E-4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4.3135999999999999E-4</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>-3.0155000000000001E-8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.359E-4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2.4489999999999999E-4</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3.2726000000000001E-4</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3.8481000000000002E-4</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4.1926000000000002E-4</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4.3679999999999999E-4</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4.4485999999999999E-4</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>-6.72E-9</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2.4994999999999998E-4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3.3474999999999998E-4</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3.9450999999999999E-4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4.3114999999999999E-4</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4.5009999999999999E-4</v>
+      </c>
+      <c r="H77" s="1">
+        <v>4.5869999999999998E-4</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>-2.6145E-8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.5495999999999998E-4</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.4221000000000002E-4</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4.0430000000000002E-4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4.6335000000000001E-4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>4.7270999999999999E-4</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>-2.055E-9</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1.4365E-4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2.5985E-4</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3.4955000000000001E-4</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4.1385E-4</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4.548E-4</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4.7689999999999999E-4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>4.8694999999999999E-4</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>-4.3636000000000001E-8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1.4605E-4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2.6496000000000001E-4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3.5696000000000002E-4</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4.2366000000000002E-4</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4.6655999999999998E-4</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4.9003999999999996E-4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>5.0100999999999998E-4</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>-6.1799999999999998E-9</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.4865000000000001E-4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2.7004999999999998E-4</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3.6455999999999999E-4</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4.3365E-4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>4.7860999999999997E-4</v>
+      </c>
+      <c r="G81" s="1">
+        <v>5.0387000000000001E-4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>5.1575999999999998E-4</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>-3.3529000000000002E-8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.5124999999999999E-4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2.7504999999999999E-4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3.7200999999999998E-4</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4.4346000000000001E-4</v>
+      </c>
+      <c r="F82" s="1">
+        <v>4.9054999999999997E-4</v>
+      </c>
+      <c r="G82" s="1">
+        <v>5.1769999999999995E-4</v>
+      </c>
+      <c r="H82" s="1">
+        <v>5.3045000000000002E-4</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>